--- a/myapp/cert_templates/Completion_Certificate.xlsx
+++ b/myapp/cert_templates/Completion_Certificate.xlsx
@@ -5,29 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\thesis_osa\myapp\cert_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E61CE-196A-4B65-9F2F-28C27310B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9130862-E840-49A0-8722-95182F41EBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Completion Certificate" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="date">inputs!$B$5</definedName>
     <definedName name="end_date">inputs!$B$7</definedName>
     <definedName name="hours">inputs!$B$9</definedName>
     <definedName name="osa_head">inputs!$B$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$1:$21</definedName>
     <definedName name="program">inputs!$B$4</definedName>
     <definedName name="start_date">inputs!$B$6</definedName>
     <definedName name="student_id">inputs!$B$3</definedName>
     <definedName name="student_name">inputs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -74,15 +73,42 @@
     <t>BET-COET</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>November 10. 2025</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>November 20, 2025</t>
+  </si>
+  <si>
     <t>osa_head</t>
   </si>
   <si>
     <t>Beverly M. de Vega</t>
   </si>
   <si>
+    <t>hours</t>
+  </si>
+  <si>
     <t>TECHNOLOGICAL UNIVERSITY OF THE PHILIPPINES</t>
   </si>
   <si>
+    <t xml:space="preserve">                   CAVITE CAMPUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 CQT. Ave., Salawag City of Dasmariñas City, Cavite</t>
+  </si>
+  <si>
+    <t>CERTIFICATION OF COMMUNITY SERVICE COMPLETED</t>
+  </si>
+  <si>
     <t>This certifies that</t>
   </si>
   <si>
@@ -98,44 +124,20 @@
     <t>required</t>
   </si>
   <si>
-    <t>hours</t>
+    <t>hours of</t>
   </si>
   <si>
     <t>Head, Office of Student Affairs</t>
-  </si>
-  <si>
-    <t>CQT. Ave., Salawag City of Dasmariñas City, Cavite</t>
-  </si>
-  <si>
-    <t>CERTIFICATION OF COMMUNITY SERVICE COMPLETED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   CAVITE CAMPUS</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>November 10. 2025</t>
-  </si>
-  <si>
-    <t>November 20, 2025</t>
-  </si>
-  <si>
-    <t>hours of</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,22 +152,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -173,6 +171,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -180,6 +179,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,57 +202,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,74 +259,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF8B8948"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1155CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,49 +275,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>150017</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>8339</xdr:rowOff>
+      <xdr:colOff>97200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>585996</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AA53F6-DF69-A473-EAFD-E98AC99EA330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2376486" y="169073"/>
-          <a:ext cx="435979" cy="432194"/>
+          <a:off x="177840" y="63360"/>
+          <a:ext cx="435600" cy="434520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -583,74 +508,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
         <v>45699</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11">
         <v>20</v>
       </c>
     </row>
@@ -661,52 +586,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EF082F-1A8B-406B-9EE3-B5B024169996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.140625" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
@@ -716,112 +641,112 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="13" t="str">
         <f>TEXT(date,"mmmm d, yyyy")</f>
         <v>February 11, 2025</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="15" t="str">
         <f>student_name</f>
         <v>Lord Jaisson Riberal</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="18" t="str">
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="str">
         <f>program</f>
         <v>BET-COET</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13">
         <f>hours</f>
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="3" t="str">
         <f>"community service from " &amp; TEXT(start_date,"mmmm d, yyyy") &amp;
 " to " &amp; TEXT(end_date,"mmmm d, yyyy") &amp;
 " and is hereby cleared in this office of such violation."</f>
         <v>community service from November 10. 2025 to November 20, 2025 and is hereby cleared in this office of such violation.</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="1" t="str">
         <f>osa_head</f>
         <v>Beverly M. de Vega</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.31496062992125984" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.98402777777777795" right="0.98402777777777795" top="0.31527777777777799" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>